--- a/user_loadcell.xlsx
+++ b/user_loadcell.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
